--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_supplier_list.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_supplier_list.xlsx
@@ -90,18 +90,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -153,7 +147,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +430,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_supplier_list.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_supplier_list.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siraph/Documents/pabi/pb2_addons/pabi_procurement_report/xlsx_template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -71,8 +71,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -81,13 +81,20 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,15 +147,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -159,6 +185,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -429,123 +458,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="5" customWidth="1"/>
+    <col min="2" max="7" width="20" style="6" customWidth="1"/>
+    <col min="8" max="8" width="25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" ht="25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.60972222222222205" bottom="0.37013888888888902" header="0.51180555555555496" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;8 2018-02-20 09:37:39&amp;R&amp;8&amp;P / &amp;N</oddFooter>
   </headerFooter>

--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_supplier_list.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_supplier_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Budget Summary Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,13 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>NSTDA</t>
-  </si>
-  <si>
-    <t>Supplier List Report</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -66,13 +60,22 @@
   </si>
   <si>
     <t>กลุ่มธุรกิจ</t>
+  </si>
+  <si>
+    <t>รายงานตรวจสอบรายชื่อผู้ขายตามประเภทธุรกิจ</t>
+  </si>
+  <si>
+    <t>ศูนย์</t>
+  </si>
+  <si>
+    <t>ประเภทผู้ขาย</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -93,6 +96,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -147,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -155,9 +164,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -175,6 +181,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,124 +468,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="5" customWidth="1"/>
-    <col min="2" max="7" width="20" style="6" customWidth="1"/>
-    <col min="8" max="8" width="25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="20" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" style="4" customWidth="1"/>
+    <col min="2" max="7" width="20" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="5" customWidth="1"/>
     <col min="11" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" s="8" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.60972222222222205" bottom="0.37013888888888902" header="0.51180555555555496" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_supplier_list.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_supplier_list.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neunghathai\Desktop\Report Pabi\รายการแก้ไข\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siraph/Documents/pabi/pb2_addons/pabi_procurement_report/xlsx_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -471,52 +471,50 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="4" customWidth="1"/>
     <col min="2" max="7" width="20" style="5" customWidth="1"/>
     <col min="8" max="8" width="25" style="5" customWidth="1"/>
     <col min="9" max="9" width="20" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="8.81640625" style="1"/>
+    <col min="10" max="10" width="11.5" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
+    <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:10" s="8" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="8" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -548,7 +546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -559,7 +557,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -570,7 +568,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -581,7 +579,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -592,7 +590,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>

--- a/pabi_procurement_report/xlsx_template/xlsx_report_pabi_supplier_list.xlsx
+++ b/pabi_procurement_report/xlsx_template/xlsx_report_pabi_supplier_list.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siraph/Documents/pabi/pb2_addons/pabi_procurement_report/xlsx_template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\801645\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="3420" windowWidth="22480" windowHeight="10000" tabRatio="500"/>
+    <workbookView xWindow="4425" yWindow="3420" windowWidth="22485" windowHeight="10005" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Budget Summary Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -69,6 +66,18 @@
   </si>
   <si>
     <t>ประเภทผู้ขาย</t>
+  </si>
+  <si>
+    <t>เลขที่บัญชี</t>
+  </si>
+  <si>
+    <t>ธนาคาร</t>
+  </si>
+  <si>
+    <t>ชื่อบัญชี</t>
+  </si>
+  <si>
+    <t>Supplier Payment</t>
   </si>
 </sst>
 </file>
@@ -468,53 +477,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="4" customWidth="1"/>
     <col min="2" max="7" width="20" style="5" customWidth="1"/>
     <col min="8" max="8" width="25" style="5" customWidth="1"/>
     <col min="9" max="9" width="20" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="22.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:10" s="8" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" s="8" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -545,8 +558,20 @@
       <c r="J7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -557,7 +582,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -568,7 +593,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -579,7 +604,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -590,7 +615,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
